--- a/exemples/exemple.xlsx
+++ b/exemples/exemple.xlsx
@@ -20,15 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chair</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">couch_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couch_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desk</t>
   </si>
   <si>
     <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armchair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bookshelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diner_table_with_chairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sideboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chest_of_drawers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standing_lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar_with_stools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bike_stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garbage_can</t>
   </si>
 </sst>
 </file>
@@ -43,6 +121,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,9 +181,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -124,10 +207,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -140,10 +223,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -151,10 +234,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.71</v>
+        <v>500</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,10 +245,296 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
